--- a/Documentation/LogBook.xlsx
+++ b/Documentation/LogBook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>Proposition</t>
-  </si>
-  <si>
-    <t>&gt; LCD blueprints</t>
-  </si>
-  <si>
-    <t>&gt; OLED blueprints</t>
   </si>
   <si>
     <r>
@@ -98,14 +92,41 @@
     <t>OK</t>
   </si>
   <si>
-    <t>&gt;EPAPER blueprints</t>
+    <t>&gt; custom_displays</t>
+  </si>
+  <si>
+    <t>&gt; epaper</t>
+  </si>
+  <si>
+    <t>&gt; oled</t>
+  </si>
+  <si>
+    <t>&gt; lcd segment et graphic</t>
+  </si>
+  <si>
+    <t>how to fix bd</t>
+  </si>
+  <si>
+    <t>Comparaison avec F-bone</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>http://piotr.banaszkiewicz.org/blog/2012/06/29/flask-sqlalchemy-init_app/</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/22929839/circular-import-of-db-reference-using-flask-sqlalchemy-and-blueprints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème de Circular import of db, avec flask sqlachemy </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +202,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -288,7 +316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -296,10 +324,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -334,21 +365,35 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="60 % - Accent1" xfId="4" builtinId="32"/>
     <cellStyle name="60 % - Accent2" xfId="5" builtinId="36"/>
     <cellStyle name="60 % - Accent3" xfId="6" builtinId="40"/>
     <cellStyle name="Calcul" xfId="3" builtinId="22"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8"/>
     <cellStyle name="Neutre" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
@@ -643,74 +688,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="109.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="109.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="105.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="16">
+      <c r="D1" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="19">
         <v>42289</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:4">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="22">
+        <v>42290</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -724,48 +803,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Documentation/LogBook.xlsx
+++ b/Documentation/LogBook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t xml:space="preserve">Problème de Circular import of db, avec flask sqlachemy </t>
+  </si>
+  <si>
+    <t>adding thermal printers bp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue prints all subdiv product </t>
+  </si>
+  <si>
+    <t>OK, models encore à définir, ainsi que pages à personnaliser</t>
   </si>
 </sst>
 </file>
@@ -329,7 +338,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="60 % - Accent1" xfId="4" builtinId="32"/>
@@ -688,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -762,13 +774,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22">
+      <c r="A8" s="25">
         <v>42290</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -782,6 +794,341 @@
       <c r="D9" s="24" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="22">
+        <v>42292</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="17"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="17"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="17"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="17"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="17"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="17"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="17"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="17"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="17"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="17"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="17"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="17"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="17"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="17"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="17"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="17"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="17"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="17"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="17"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="17"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="17"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="21"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="17"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="21"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="17"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="21"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="17"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="21"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="17"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="21"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="17"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="21"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="17"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="21"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="17"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="21"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="17"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="21"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="17"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="21"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="17"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="21"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="17"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="21"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="17"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="21"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="17"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="21"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="17"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="21"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="17"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="21"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="17"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="21"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="17"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="21"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="17"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="21"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="17"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="21"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="17"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="21"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="17"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="21"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="17"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="21"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="17"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="21"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="17"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="21"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="17"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="21"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
